--- a/data_processing_elements-DSE.xlsx
+++ b/data_processing_elements-DSE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlaforme\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9FAF49-A47E-4B6A-BB8B-683CE37F36AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8989DCEF-0B06-4238-B8EE-B9090599C27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements" sheetId="8" r:id="rId1"/>
@@ -1454,7 +1454,7 @@
   </si>
   <si>
     <t>case_when(
-!is.na(MA1_B_CD) ~ as.Date(MA1_B_CD);
+!is.na(MA1_B_CD) ~ as.Date(MA1_B_CD, format="%m/%d/%Y %I:%M:%S %p");
 !is.na(MA1_A_DATO) ~ as.Date(MA1_A_DATO);
 !is.na(MA1_B_DATO) ~ as.Date(MA1_B_DATO);
 !is.na(MA1_F_Stjek_dato) ~ as.Date(MA1_F_Stjek_dato);
@@ -1538,7 +1538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1564,9 +1564,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1912,31 +1911,30 @@
       <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S3" sqref="S3"/>
+      <selection pane="bottomRight" activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="10"/>
-    <col min="8" max="8" width="8.5703125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="36.7109375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="25.140625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="26.42578125" style="10" customWidth="1"/>
-    <col min="12" max="12" width="30.140625" style="10" customWidth="1"/>
-    <col min="13" max="13" width="31.85546875" style="11" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="10" customWidth="1"/>
-    <col min="15" max="15" width="21.28515625" style="10" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="10" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" style="10" customWidth="1"/>
-    <col min="18" max="18" width="17.5703125" style="10" customWidth="1"/>
-    <col min="19" max="19" width="45.42578125" style="10" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="4.7109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="9"/>
+    <col min="8" max="8" width="8.5703125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="36.7109375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="30.140625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="31.85546875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="9" customWidth="1"/>
+    <col min="15" max="15" width="21.28515625" style="9" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="9" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" style="9" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" style="9" customWidth="1"/>
+    <col min="19" max="19" width="45.42578125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -1999,92 +1997,92 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>289</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9" t="s">
+      <c r="O2"/>
+      <c r="P2" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+    <row r="3" spans="1:19" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>30</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>291</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9" t="s">
+      <c r="O3"/>
+      <c r="P3" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" t="s">
         <v>202</v>
       </c>
       <c r="S3" s="8" t="s">
@@ -2092,79 +2090,79 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="F4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="9" t="s">
         <v>293</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9" t="s">
+      <c r="O4"/>
+      <c r="P4" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" t="s">
         <v>48</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" t="s">
         <v>202</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>379</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -2173,43 +2171,43 @@
       <c r="L5" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9" t="s">
+      <c r="O5"/>
+      <c r="P5" t="s">
         <v>24</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" t="s">
         <v>48</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="R5" t="s">
         <v>202</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="S5" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="11" t="s">
+      <c r="F6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="9" t="s">
         <v>298</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -2218,169 +2216,169 @@
       <c r="L6" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9" t="s">
+      <c r="O6"/>
+      <c r="P6" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" t="s">
         <v>48</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" t="s">
         <v>38</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="11" t="s">
+      <c r="F7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q7" s="9" t="s">
+      <c r="J7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7"/>
+      <c r="P7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" t="s">
         <v>60</v>
       </c>
-      <c r="R7" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S7" s="9" t="s">
+      <c r="R7" t="s">
+        <v>59</v>
+      </c>
+      <c r="S7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>36</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O8" s="9" t="s">
+      <c r="J8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8" t="s">
         <v>350</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="Q8" t="s">
         <v>25</v>
       </c>
-      <c r="R8" s="9" t="s">
+      <c r="R8" t="s">
         <v>54</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>36</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9" t="s">
+      <c r="O9"/>
+      <c r="P9" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="Q9" t="s">
         <v>48</v>
       </c>
-      <c r="R9" s="9" t="s">
+      <c r="R9" t="s">
         <v>202</v>
       </c>
-      <c r="S9" s="9" t="s">
+      <c r="S9" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>65</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>68</v>
       </c>
       <c r="I10" s="7"/>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>380</v>
       </c>
       <c r="K10" s="1" t="s">
@@ -2389,40 +2387,40 @@
       <c r="L10" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9" t="s">
+      <c r="O10"/>
+      <c r="P10" t="s">
         <v>24</v>
       </c>
-      <c r="Q10" s="9" t="s">
+      <c r="Q10" t="s">
         <v>48</v>
       </c>
-      <c r="R10" s="9" t="s">
+      <c r="R10" t="s">
         <v>202</v>
       </c>
-      <c r="S10" s="9" t="s">
+      <c r="S10" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>69</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="9" t="s">
         <v>381</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -2431,621 +2429,621 @@
       <c r="L11" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="N11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9" t="s">
+      <c r="O11"/>
+      <c r="P11" t="s">
         <v>24</v>
       </c>
-      <c r="Q11" s="9" t="s">
+      <c r="Q11" t="s">
         <v>48</v>
       </c>
-      <c r="R11" s="9" t="s">
+      <c r="R11" t="s">
         <v>202</v>
       </c>
-      <c r="S11" s="9" t="s">
+      <c r="S11" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>72</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="11" t="s">
+      <c r="F12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="J12" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O12" s="9" t="s">
+      <c r="J12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O12" t="s">
         <v>351</v>
       </c>
-      <c r="P12" s="9" t="s">
+      <c r="P12" t="s">
         <v>24</v>
       </c>
-      <c r="Q12" s="9" t="s">
+      <c r="Q12" t="s">
         <v>25</v>
       </c>
-      <c r="R12" s="9" t="s">
+      <c r="R12" t="s">
         <v>54</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="11" t="s">
+      <c r="F13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="J13" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q13" s="9" t="s">
+      <c r="J13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O13"/>
+      <c r="P13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q13" t="s">
         <v>60</v>
       </c>
-      <c r="R13" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S13" s="9" t="s">
+      <c r="R13" t="s">
+        <v>59</v>
+      </c>
+      <c r="S13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="11" t="s">
+      <c r="F14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="J14" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q14" s="9" t="s">
+      <c r="J14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O14"/>
+      <c r="P14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q14" t="s">
         <v>60</v>
       </c>
-      <c r="R14" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S14" s="9" t="s">
+      <c r="R14" t="s">
+        <v>59</v>
+      </c>
+      <c r="S14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="11" t="s">
+      <c r="F15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="J15" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q15" s="9" t="s">
+      <c r="J15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O15"/>
+      <c r="P15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q15" t="s">
         <v>60</v>
       </c>
-      <c r="R15" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S15" s="9" t="s">
+      <c r="R15" t="s">
+        <v>59</v>
+      </c>
+      <c r="S15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="9" t="s">
         <v>307</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="M16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="N16" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="O16" s="9" t="s">
+      <c r="O16" t="s">
         <v>364</v>
       </c>
-      <c r="P16" s="9" t="s">
+      <c r="P16" t="s">
         <v>24</v>
       </c>
-      <c r="Q16" s="9" t="s">
+      <c r="Q16" t="s">
         <v>48</v>
       </c>
-      <c r="R16" s="9" t="s">
+      <c r="R16" t="s">
         <v>202</v>
       </c>
-      <c r="S16" s="9" t="s">
+      <c r="S16" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C17" s="10" t="s">
+      <c r="B17" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="11" t="s">
+      <c r="F17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9" t="s">
+      <c r="O17"/>
+      <c r="P17" t="s">
         <v>24</v>
       </c>
-      <c r="Q17" s="9" t="s">
+      <c r="Q17" t="s">
         <v>48</v>
       </c>
-      <c r="R17" s="9" t="s">
+      <c r="R17" t="s">
         <v>202</v>
       </c>
-      <c r="S17" s="9" t="s">
+      <c r="S17" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="B18" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="9" t="s">
         <v>309</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="M18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N18" s="10" t="s">
+      <c r="N18" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="O18" s="9" t="s">
+      <c r="O18" t="s">
         <v>367</v>
       </c>
-      <c r="P18" s="9" t="s">
+      <c r="P18" t="s">
         <v>24</v>
       </c>
-      <c r="Q18" s="9" t="s">
+      <c r="Q18" t="s">
         <v>48</v>
       </c>
-      <c r="R18" s="9" t="s">
+      <c r="R18" t="s">
         <v>202</v>
       </c>
-      <c r="S18" s="9" t="s">
+      <c r="S18" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="11" t="s">
+      <c r="F19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9" t="s">
+      <c r="O19"/>
+      <c r="P19" t="s">
         <v>24</v>
       </c>
-      <c r="Q19" s="9" t="s">
+      <c r="Q19" t="s">
         <v>48</v>
       </c>
-      <c r="R19" s="9" t="s">
+      <c r="R19" t="s">
         <v>202</v>
       </c>
-      <c r="S19" s="9" t="s">
+      <c r="S19" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K20" s="9" t="s">
         <v>312</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="M20" s="11" t="s">
+      <c r="M20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N20" s="10" t="s">
+      <c r="N20" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="O20" s="9" t="s">
+      <c r="O20" t="s">
         <v>370</v>
       </c>
-      <c r="P20" s="9" t="s">
+      <c r="P20" t="s">
         <v>24</v>
       </c>
-      <c r="Q20" s="9" t="s">
+      <c r="Q20" t="s">
         <v>48</v>
       </c>
-      <c r="R20" s="9" t="s">
+      <c r="R20" t="s">
         <v>202</v>
       </c>
-      <c r="S20" s="9" t="s">
+      <c r="S20" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C21" s="10" t="s">
+      <c r="B21" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="J21" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q21" s="9" t="s">
+      <c r="J21" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O21"/>
+      <c r="P21" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q21" t="s">
         <v>60</v>
       </c>
-      <c r="R21" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S21" s="9" t="s">
+      <c r="R21" t="s">
+        <v>59</v>
+      </c>
+      <c r="S21" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="A22" s="9">
         <v>21</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C22" s="10" t="s">
+      <c r="B22" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" s="11" t="s">
+      <c r="F22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J22" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q22" s="9" t="s">
+      <c r="J22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O22"/>
+      <c r="P22" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q22" t="s">
         <v>60</v>
       </c>
-      <c r="R22" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S22" s="9" t="s">
+      <c r="R22" t="s">
+        <v>59</v>
+      </c>
+      <c r="S22" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C23" s="10" t="s">
+      <c r="B23" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="9" t="s">
         <v>314</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="M23" s="11" t="s">
+      <c r="M23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N23" s="10" t="s">
+      <c r="N23" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9" t="s">
+      <c r="O23"/>
+      <c r="P23" t="s">
         <v>24</v>
       </c>
-      <c r="Q23" s="9" t="s">
+      <c r="Q23" t="s">
         <v>25</v>
       </c>
-      <c r="R23" s="9" t="s">
+      <c r="R23" t="s">
         <v>43</v>
       </c>
-      <c r="S23" s="9" t="s">
+      <c r="S23" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="A24" s="9">
         <v>23</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C24" s="10" t="s">
+      <c r="B24" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="K24" s="9" t="s">
         <v>314</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="M24" s="11" t="s">
+      <c r="M24" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N24" s="10" t="s">
+      <c r="N24" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9" t="s">
+      <c r="O24"/>
+      <c r="P24" t="s">
         <v>24</v>
       </c>
-      <c r="Q24" s="9" t="s">
+      <c r="Q24" t="s">
         <v>48</v>
       </c>
-      <c r="R24" s="9" t="s">
+      <c r="R24" t="s">
         <v>32</v>
       </c>
-      <c r="S24" s="9" t="s">
+      <c r="S24" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
+      <c r="A25" s="9">
         <v>24</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C25" s="10" t="s">
+      <c r="B25" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="10" t="s">
+      <c r="F25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="9" t="s">
         <v>385</v>
       </c>
       <c r="K25" s="1" t="s">
@@ -3054,51 +3052,51 @@
       <c r="L25" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="M25" s="11" t="s">
+      <c r="M25" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N25" s="10" t="s">
+      <c r="N25" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="O25" s="9" t="s">
+      <c r="O25" t="s">
         <v>103</v>
       </c>
-      <c r="P25" s="9" t="s">
+      <c r="P25" t="s">
         <v>24</v>
       </c>
-      <c r="Q25" s="9" t="s">
+      <c r="Q25" t="s">
         <v>48</v>
       </c>
-      <c r="R25" s="9" t="s">
+      <c r="R25" t="s">
         <v>32</v>
       </c>
-      <c r="S25" s="9" t="s">
+      <c r="S25" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
+      <c r="A26" s="9">
         <v>25</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C26" s="10" t="s">
+      <c r="B26" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="10" t="s">
+      <c r="F26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="9" t="s">
         <v>386</v>
       </c>
       <c r="K26" s="1" t="s">
@@ -3107,51 +3105,51 @@
       <c r="L26" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="M26" s="11" t="s">
+      <c r="M26" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="10" t="s">
+      <c r="N26" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="O26" s="9" t="s">
+      <c r="O26" t="s">
         <v>103</v>
       </c>
-      <c r="P26" s="9" t="s">
+      <c r="P26" t="s">
         <v>24</v>
       </c>
-      <c r="Q26" s="9" t="s">
+      <c r="Q26" t="s">
         <v>48</v>
       </c>
-      <c r="R26" s="9" t="s">
+      <c r="R26" t="s">
         <v>32</v>
       </c>
-      <c r="S26" s="9" t="s">
+      <c r="S26" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
+      <c r="A27" s="9">
         <v>26</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C27" s="10" t="s">
+      <c r="B27" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="9" t="s">
         <v>68</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="9" t="s">
         <v>387</v>
       </c>
       <c r="K27" s="1" t="s">
@@ -3160,747 +3158,747 @@
       <c r="L27" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="M27" s="11" t="s">
+      <c r="M27" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N27" s="10" t="s">
+      <c r="N27" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="O27" s="9" t="s">
+      <c r="O27" t="s">
         <v>103</v>
       </c>
-      <c r="P27" s="9" t="s">
+      <c r="P27" t="s">
         <v>24</v>
       </c>
-      <c r="Q27" s="9" t="s">
+      <c r="Q27" t="s">
         <v>48</v>
       </c>
-      <c r="R27" s="9" t="s">
+      <c r="R27" t="s">
         <v>32</v>
       </c>
-      <c r="S27" s="9" t="s">
+      <c r="S27" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
+      <c r="A28" s="9">
         <v>27</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C28" s="10" t="s">
+      <c r="B28" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="9" t="s">
         <v>68</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="J28" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q28" s="9" t="s">
+      <c r="J28" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O28"/>
+      <c r="P28" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q28" t="s">
         <v>60</v>
       </c>
-      <c r="R28" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S28" s="9" t="s">
+      <c r="R28" t="s">
+        <v>59</v>
+      </c>
+      <c r="S28" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
+      <c r="A29" s="9">
         <v>28</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C29" s="10" t="s">
+      <c r="B29" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="9" t="s">
         <v>36</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="J29" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q29" s="9" t="s">
+      <c r="J29" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O29"/>
+      <c r="P29" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q29" t="s">
         <v>60</v>
       </c>
-      <c r="R29" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S29" s="9" t="s">
+      <c r="R29" t="s">
+        <v>59</v>
+      </c>
+      <c r="S29" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
+      <c r="A30" s="9">
         <v>29</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C30" s="10" t="s">
+      <c r="B30" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="9" t="s">
         <v>68</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J30" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q30" s="9" t="s">
+      <c r="J30" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O30"/>
+      <c r="P30" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q30" t="s">
         <v>60</v>
       </c>
-      <c r="R30" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S30" s="9" t="s">
+      <c r="R30" t="s">
+        <v>59</v>
+      </c>
+      <c r="S30" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+      <c r="A31" s="9">
         <v>30</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C31" s="10" t="s">
+      <c r="B31" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="9" t="s">
         <v>68</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J31" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q31" s="9" t="s">
+      <c r="J31" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O31"/>
+      <c r="P31" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q31" t="s">
         <v>60</v>
       </c>
-      <c r="R31" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S31" s="9" t="s">
+      <c r="R31" t="s">
+        <v>59</v>
+      </c>
+      <c r="S31" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+      <c r="A32" s="9">
         <v>31</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C32" s="10" t="s">
+      <c r="B32" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="9" t="s">
         <v>68</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="J32" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q32" s="9" t="s">
+      <c r="J32" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O32"/>
+      <c r="P32" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q32" t="s">
         <v>60</v>
       </c>
-      <c r="R32" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S32" s="9" t="s">
+      <c r="R32" t="s">
+        <v>59</v>
+      </c>
+      <c r="S32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
+      <c r="A33" s="9">
         <v>32</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C33" s="10" t="s">
+      <c r="B33" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="9" t="s">
         <v>68</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="J33" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q33" s="9" t="s">
+      <c r="J33" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O33"/>
+      <c r="P33" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" t="s">
         <v>60</v>
       </c>
-      <c r="R33" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S33" s="9" t="s">
+      <c r="R33" t="s">
+        <v>59</v>
+      </c>
+      <c r="S33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
+      <c r="A34" s="9">
         <v>33</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C34" s="10" t="s">
+      <c r="B34" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="9" t="s">
         <v>68</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="J34" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q34" s="9" t="s">
+      <c r="J34" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O34"/>
+      <c r="P34" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q34" t="s">
         <v>60</v>
       </c>
-      <c r="R34" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S34" s="9" t="s">
+      <c r="R34" t="s">
+        <v>59</v>
+      </c>
+      <c r="S34" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
+      <c r="A35" s="9">
         <v>34</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C35" s="10" t="s">
+      <c r="B35" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="9" t="s">
         <v>68</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="J35" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q35" s="9" t="s">
+      <c r="J35" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O35"/>
+      <c r="P35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q35" t="s">
         <v>60</v>
       </c>
-      <c r="R35" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S35" s="9" t="s">
+      <c r="R35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S35" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
+      <c r="A36" s="9">
         <v>35</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C36" s="10" t="s">
+      <c r="B36" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="9" t="s">
         <v>68</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="J36" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q36" s="9" t="s">
+      <c r="J36" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O36"/>
+      <c r="P36" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q36" t="s">
         <v>60</v>
       </c>
-      <c r="R36" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S36" s="9" t="s">
+      <c r="R36" t="s">
+        <v>59</v>
+      </c>
+      <c r="S36" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
-        <v>36</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C37" s="10" t="s">
+      <c r="A37" s="9">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="J37" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q37" s="9" t="s">
+      <c r="J37" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O37"/>
+      <c r="P37" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q37" t="s">
         <v>60</v>
       </c>
-      <c r="R37" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S37" s="9" t="s">
+      <c r="R37" t="s">
+        <v>59</v>
+      </c>
+      <c r="S37" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
+      <c r="A38" s="9">
         <v>37</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C38" s="10" t="s">
+      <c r="B38" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="F38" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" s="10" t="s">
+      <c r="F38" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="J38" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q38" s="9" t="s">
+      <c r="J38" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O38"/>
+      <c r="P38" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q38" t="s">
         <v>60</v>
       </c>
-      <c r="R38" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S38" s="9" t="s">
+      <c r="R38" t="s">
+        <v>59</v>
+      </c>
+      <c r="S38" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
+      <c r="A39" s="9">
         <v>38</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C39" s="10" t="s">
+      <c r="B39" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="F39" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I39" s="11" t="s">
+      <c r="F39" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I39" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="J39" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q39" s="9" t="s">
+      <c r="J39" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O39"/>
+      <c r="P39" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q39" t="s">
         <v>60</v>
       </c>
-      <c r="R39" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S39" s="9" t="s">
+      <c r="R39" t="s">
+        <v>59</v>
+      </c>
+      <c r="S39" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
+      <c r="A40" s="9">
         <v>39</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C40" s="10" t="s">
+      <c r="B40" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F40" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G40" s="10" t="s">
+      <c r="F40" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="J40" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q40" s="9" t="s">
+      <c r="J40" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O40"/>
+      <c r="P40" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q40" t="s">
         <v>60</v>
       </c>
-      <c r="R40" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S40" s="9" t="s">
+      <c r="R40" t="s">
+        <v>59</v>
+      </c>
+      <c r="S40" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
+      <c r="A41" s="9">
         <v>40</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C41" s="10" t="s">
+      <c r="B41" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="F41" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I41" s="11" t="s">
+      <c r="F41" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="J41" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q41" s="9" t="s">
+      <c r="J41" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O41"/>
+      <c r="P41" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q41" t="s">
         <v>60</v>
       </c>
-      <c r="R41" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S41" s="9" t="s">
+      <c r="R41" t="s">
+        <v>59</v>
+      </c>
+      <c r="S41" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
+      <c r="A42" s="9">
         <v>41</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C42" s="10" t="s">
+      <c r="B42" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="9" t="s">
         <v>68</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J42" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q42" s="9" t="s">
+      <c r="J42" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O42"/>
+      <c r="P42" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q42" t="s">
         <v>60</v>
       </c>
-      <c r="R42" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S42" s="9" t="s">
+      <c r="R42" t="s">
+        <v>59</v>
+      </c>
+      <c r="S42" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
+      <c r="A43" s="9">
         <v>42</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C43" s="10" t="s">
+      <c r="B43" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="9" t="s">
         <v>68</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="J43" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q43" s="9" t="s">
+      <c r="J43" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O43"/>
+      <c r="P43" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q43" t="s">
         <v>60</v>
       </c>
-      <c r="R43" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S43" s="9" t="s">
+      <c r="R43" t="s">
+        <v>59</v>
+      </c>
+      <c r="S43" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
+      <c r="A44" s="9">
         <v>43</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C44" s="10" t="s">
+      <c r="B44" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="F44" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I44" s="11" t="s">
+      <c r="F44" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I44" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="J44" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q44" s="9" t="s">
+      <c r="J44" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O44"/>
+      <c r="P44" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q44" t="s">
         <v>60</v>
       </c>
-      <c r="R44" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S44" s="9" t="s">
+      <c r="R44" t="s">
+        <v>59</v>
+      </c>
+      <c r="S44" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
+      <c r="A45" s="9">
         <v>44</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C45" s="10" t="s">
+      <c r="B45" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="F45" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I45" s="11" t="s">
+      <c r="F45" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I45" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="J45" s="10" t="s">
+      <c r="J45" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="K45" s="10" t="s">
+      <c r="K45" s="9" t="s">
         <v>323</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="M45" s="11" t="s">
+      <c r="M45" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="N45" s="10" t="s">
+      <c r="N45" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9" t="s">
+      <c r="O45"/>
+      <c r="P45" t="s">
         <v>24</v>
       </c>
-      <c r="Q45" s="9" t="s">
+      <c r="Q45" t="s">
         <v>48</v>
       </c>
-      <c r="R45" s="9" t="s">
+      <c r="R45" t="s">
         <v>202</v>
       </c>
-      <c r="S45" s="9" t="s">
+      <c r="S45" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="10">
+      <c r="A46" s="9">
         <v>45</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>287</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -3920,97 +3918,97 @@
       <c r="I46" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="J46" s="10" t="s">
+      <c r="J46" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="K46" s="10" t="s">
+      <c r="K46" s="9" t="s">
         <v>323</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="M46" s="11" t="s">
+      <c r="M46" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="N46" s="10" t="s">
+      <c r="N46" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9" t="s">
+      <c r="O46"/>
+      <c r="P46" t="s">
         <v>24</v>
       </c>
-      <c r="Q46" s="9" t="s">
+      <c r="Q46" t="s">
         <v>48</v>
       </c>
-      <c r="R46" s="9" t="s">
+      <c r="R46" t="s">
         <v>202</v>
       </c>
-      <c r="S46" s="9" t="s">
+      <c r="S46" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="10">
+      <c r="A47" s="9">
         <v>46</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C47" s="10" t="s">
+      <c r="B47" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="J47" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q47" s="9" t="s">
+      <c r="J47" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O47"/>
+      <c r="P47" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q47" t="s">
         <v>60</v>
       </c>
-      <c r="R47" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S47" s="9" t="s">
+      <c r="R47" t="s">
+        <v>59</v>
+      </c>
+      <c r="S47" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="10">
+      <c r="A48" s="9">
         <v>47</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C48" s="10" t="s">
+      <c r="B48" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="F48" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I48" s="11" t="s">
+      <c r="F48" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I48" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="J48" s="10" t="s">
+      <c r="J48" s="9" t="s">
         <v>389</v>
       </c>
       <c r="K48" s="1" t="s">
@@ -4019,49 +4017,49 @@
       <c r="L48" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="M48" s="11" t="s">
+      <c r="M48" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="N48" s="10" t="s">
+      <c r="N48" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9" t="s">
+      <c r="O48"/>
+      <c r="P48" t="s">
         <v>24</v>
       </c>
-      <c r="Q48" s="9" t="s">
+      <c r="Q48" t="s">
         <v>48</v>
       </c>
-      <c r="R48" s="9" t="s">
+      <c r="R48" t="s">
         <v>202</v>
       </c>
-      <c r="S48" s="9" t="s">
+      <c r="S48" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
+      <c r="A49" s="9">
         <v>48</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C49" s="10" t="s">
+      <c r="B49" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="9" t="s">
         <v>185</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F49" s="9" t="s">
         <v>36</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="J49" s="10" t="s">
+      <c r="J49" s="9" t="s">
         <v>390</v>
       </c>
       <c r="K49" s="1" t="s">
@@ -4073,30 +4071,30 @@
       <c r="M49" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="O49" s="9" t="s">
+      <c r="O49" t="s">
         <v>332</v>
       </c>
-      <c r="P49" s="9" t="s">
+      <c r="P49" t="s">
         <v>24</v>
       </c>
-      <c r="Q49" s="9" t="s">
+      <c r="Q49" t="s">
         <v>48</v>
       </c>
-      <c r="R49" s="9" t="s">
+      <c r="R49" t="s">
         <v>202</v>
       </c>
-      <c r="S49" s="9" t="s">
+      <c r="S49" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
+      <c r="A50" s="9">
         <v>49</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C50" s="10" t="s">
+      <c r="B50" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>188</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -4105,13 +4103,13 @@
       <c r="E50" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F50" s="9" t="s">
         <v>36</v>
       </c>
       <c r="I50" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="J50" s="10" t="s">
+      <c r="J50" s="9" t="s">
         <v>391</v>
       </c>
       <c r="K50" s="1" t="s">
@@ -4120,51 +4118,51 @@
       <c r="L50" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="M50" s="11" t="s">
+      <c r="M50" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="N50" s="10" t="s">
+      <c r="N50" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O50" s="9" t="s">
+      <c r="O50" t="s">
         <v>335</v>
       </c>
-      <c r="P50" s="9" t="s">
+      <c r="P50" t="s">
         <v>24</v>
       </c>
-      <c r="Q50" s="9" t="s">
+      <c r="Q50" t="s">
         <v>48</v>
       </c>
-      <c r="R50" s="9" t="s">
+      <c r="R50" t="s">
         <v>202</v>
       </c>
-      <c r="S50" s="9" t="s">
+      <c r="S50" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="10">
+      <c r="A51" s="9">
         <v>50</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C51" s="10" t="s">
+      <c r="B51" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="F51" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I51" s="11" t="s">
+      <c r="F51" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I51" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="J51" s="10" t="s">
+      <c r="J51" s="9" t="s">
         <v>336</v>
       </c>
       <c r="K51" s="1" t="s">
@@ -4173,205 +4171,205 @@
       <c r="L51" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="M51" s="11" t="s">
+      <c r="M51" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="N51" s="10" t="s">
+      <c r="N51" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9" t="s">
+      <c r="O51"/>
+      <c r="P51" t="s">
         <v>24</v>
       </c>
-      <c r="Q51" s="9" t="s">
+      <c r="Q51" t="s">
         <v>48</v>
       </c>
-      <c r="R51" s="9" t="s">
+      <c r="R51" t="s">
         <v>38</v>
       </c>
-      <c r="S51" s="9" t="s">
+      <c r="S51" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
+      <c r="A52" s="9">
         <v>51</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C52" s="10" t="s">
+      <c r="B52" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E52" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="F52" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I52" s="11" t="s">
+      <c r="F52" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I52" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="J52" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q52" s="9" t="s">
+      <c r="J52" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O52"/>
+      <c r="P52" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q52" t="s">
         <v>60</v>
       </c>
-      <c r="R52" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S52" s="9" t="s">
+      <c r="R52" t="s">
+        <v>59</v>
+      </c>
+      <c r="S52" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="10">
+      <c r="A53" s="9">
         <v>52</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C53" s="10" t="s">
+      <c r="B53" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="9" t="s">
         <v>36</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="J53" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O53" s="9"/>
-      <c r="P53" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q53" s="9" t="s">
+      <c r="J53" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O53"/>
+      <c r="P53" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q53" t="s">
         <v>60</v>
       </c>
-      <c r="R53" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S53" s="9" t="s">
+      <c r="R53" t="s">
+        <v>59</v>
+      </c>
+      <c r="S53" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="10">
-        <v>53</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C54" s="10" t="s">
+      <c r="A54" s="9">
+        <v>53</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="F54" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I54" s="11" t="s">
+      <c r="F54" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I54" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="J54" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q54" s="9" t="s">
+      <c r="J54" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O54"/>
+      <c r="P54" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q54" t="s">
         <v>60</v>
       </c>
-      <c r="R54" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S54" s="9" t="s">
+      <c r="R54" t="s">
+        <v>59</v>
+      </c>
+      <c r="S54" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="10">
+      <c r="A55" s="9">
         <v>54</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C55" s="10" t="s">
+      <c r="B55" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E55" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="F55" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I55" s="11" t="s">
+      <c r="F55" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I55" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="J55" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O55" s="9"/>
-      <c r="P55" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q55" s="9" t="s">
+      <c r="J55" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O55"/>
+      <c r="P55" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q55" t="s">
         <v>60</v>
       </c>
-      <c r="R55" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S55" s="9" t="s">
+      <c r="R55" t="s">
+        <v>59</v>
+      </c>
+      <c r="S55" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="10">
+      <c r="A56" s="9">
         <v>55</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C56" s="10" t="s">
+      <c r="B56" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="F56" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I56" s="11" t="s">
+      <c r="F56" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I56" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="J56" s="10" t="s">
+      <c r="J56" s="9" t="s">
         <v>353</v>
       </c>
       <c r="K56" s="1" t="s">
@@ -4380,925 +4378,925 @@
       <c r="L56" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="M56" s="11" t="s">
+      <c r="M56" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="N56" s="10" t="s">
+      <c r="N56" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9" t="s">
+      <c r="O56"/>
+      <c r="P56" t="s">
         <v>24</v>
       </c>
-      <c r="Q56" s="9" t="s">
+      <c r="Q56" t="s">
         <v>25</v>
       </c>
-      <c r="R56" s="9" t="s">
+      <c r="R56" t="s">
         <v>38</v>
       </c>
-      <c r="S56" s="9" t="s">
+      <c r="S56" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="10">
+      <c r="A57" s="9">
         <v>56</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C57" s="10" t="s">
+      <c r="B57" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E57" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="F57" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I57" s="11" t="s">
+      <c r="F57" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I57" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="J57" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O57" s="9"/>
-      <c r="P57" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q57" s="9" t="s">
+      <c r="J57" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O57"/>
+      <c r="P57" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q57" t="s">
         <v>60</v>
       </c>
-      <c r="R57" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S57" s="9" t="s">
+      <c r="R57" t="s">
+        <v>59</v>
+      </c>
+      <c r="S57" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="10">
+      <c r="A58" s="9">
         <v>57</v>
       </c>
-      <c r="B58" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C58" s="10" t="s">
+      <c r="B58" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C58" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E58" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="F58" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I58" s="11" t="s">
+      <c r="F58" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I58" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="J58" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O58" s="9"/>
-      <c r="P58" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q58" s="9" t="s">
+      <c r="J58" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O58"/>
+      <c r="P58" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q58" t="s">
         <v>60</v>
       </c>
-      <c r="R58" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S58" s="9" t="s">
+      <c r="R58" t="s">
+        <v>59</v>
+      </c>
+      <c r="S58" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="10">
+      <c r="A59" s="9">
         <v>58</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C59" s="10" t="s">
+      <c r="B59" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E59" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F59" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J59" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O59" s="9"/>
-      <c r="P59" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q59" s="9" t="s">
+      <c r="F59" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O59"/>
+      <c r="P59" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q59" t="s">
         <v>60</v>
       </c>
-      <c r="R59" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S59" s="9" t="s">
+      <c r="R59" t="s">
+        <v>59</v>
+      </c>
+      <c r="S59" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="10">
-        <v>59</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C60" s="10" t="s">
+      <c r="A60" s="9">
+        <v>59</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C60" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E60" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="F60" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J60" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O60" s="9"/>
-      <c r="P60" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q60" s="9" t="s">
+      <c r="F60" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O60"/>
+      <c r="P60" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q60" t="s">
         <v>60</v>
       </c>
-      <c r="R60" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S60" s="9" t="s">
+      <c r="R60" t="s">
+        <v>59</v>
+      </c>
+      <c r="S60" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="10">
+      <c r="A61" s="9">
         <v>60</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C61" s="10" t="s">
+      <c r="B61" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="E61" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="F61" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J61" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O61" s="9"/>
-      <c r="P61" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q61" s="9" t="s">
+      <c r="F61" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O61"/>
+      <c r="P61" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q61" t="s">
         <v>60</v>
       </c>
-      <c r="R61" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S61" s="9" t="s">
+      <c r="R61" t="s">
+        <v>59</v>
+      </c>
+      <c r="S61" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="10">
+      <c r="A62" s="9">
         <v>61</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C62" s="10" t="s">
+      <c r="B62" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C62" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="E62" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="F62" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J62" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O62" s="9"/>
-      <c r="P62" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q62" s="9" t="s">
+      <c r="F62" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O62"/>
+      <c r="P62" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q62" t="s">
         <v>60</v>
       </c>
-      <c r="R62" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S62" s="9" t="s">
+      <c r="R62" t="s">
+        <v>59</v>
+      </c>
+      <c r="S62" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="10">
+      <c r="A63" s="9">
         <v>62</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C63" s="10" t="s">
+      <c r="B63" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C63" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="E63" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="F63" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J63" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O63" s="9"/>
-      <c r="P63" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q63" s="9" t="s">
+      <c r="F63" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O63"/>
+      <c r="P63" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q63" t="s">
         <v>60</v>
       </c>
-      <c r="R63" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S63" s="9" t="s">
+      <c r="R63" t="s">
+        <v>59</v>
+      </c>
+      <c r="S63" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="10">
+      <c r="A64" s="9">
         <v>63</v>
       </c>
-      <c r="B64" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C64" s="10" t="s">
+      <c r="B64" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="E64" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="F64" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J64" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O64" s="9"/>
-      <c r="P64" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q64" s="9" t="s">
+      <c r="F64" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O64"/>
+      <c r="P64" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q64" t="s">
         <v>60</v>
       </c>
-      <c r="R64" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S64" s="9" t="s">
+      <c r="R64" t="s">
+        <v>59</v>
+      </c>
+      <c r="S64" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="10">
+      <c r="A65" s="9">
         <v>64</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C65" s="10" t="s">
+      <c r="B65" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C65" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="E65" s="10" t="s">
+      <c r="E65" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="F65" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J65" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q65" s="9" t="s">
+      <c r="F65" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O65"/>
+      <c r="P65" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q65" t="s">
         <v>60</v>
       </c>
-      <c r="R65" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S65" s="9" t="s">
+      <c r="R65" t="s">
+        <v>59</v>
+      </c>
+      <c r="S65" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="10">
+      <c r="A66" s="9">
         <v>65</v>
       </c>
-      <c r="B66" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C66" s="10" t="s">
+      <c r="B66" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E66" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="F66" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I66" s="11" t="s">
+      <c r="F66" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I66" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="J66" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q66" s="9" t="s">
+      <c r="J66" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O66"/>
+      <c r="P66" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q66" t="s">
         <v>60</v>
       </c>
-      <c r="R66" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S66" s="9" t="s">
+      <c r="R66" t="s">
+        <v>59</v>
+      </c>
+      <c r="S66" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="10">
+      <c r="A67" s="9">
         <v>66</v>
       </c>
-      <c r="B67" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C67" s="10" t="s">
+      <c r="B67" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C67" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E67" s="10" t="s">
+      <c r="E67" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="F67" s="10" t="s">
+      <c r="F67" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G67" s="10" t="s">
+      <c r="G67" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="J67" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O67" s="9"/>
-      <c r="P67" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q67" s="9" t="s">
+      <c r="J67" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O67"/>
+      <c r="P67" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q67" t="s">
         <v>60</v>
       </c>
-      <c r="R67" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S67" s="9" t="s">
+      <c r="R67" t="s">
+        <v>59</v>
+      </c>
+      <c r="S67" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="10">
+      <c r="A68" s="9">
         <v>67</v>
       </c>
-      <c r="B68" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C68" s="10" t="s">
+      <c r="B68" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="E68" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="F68" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I68" s="11" t="s">
+      <c r="F68" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I68" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="J68" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O68" s="9"/>
-      <c r="P68" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q68" s="9" t="s">
+      <c r="J68" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O68"/>
+      <c r="P68" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q68" t="s">
         <v>60</v>
       </c>
-      <c r="R68" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S68" s="9" t="s">
+      <c r="R68" t="s">
+        <v>59</v>
+      </c>
+      <c r="S68" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="10">
+      <c r="A69" s="9">
         <v>68</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C69" s="10" t="s">
+      <c r="B69" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="E69" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="F69" s="10" t="s">
+      <c r="F69" s="9" t="s">
         <v>36</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="J69" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q69" s="9" t="s">
+      <c r="J69" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O69"/>
+      <c r="P69" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q69" t="s">
         <v>60</v>
       </c>
-      <c r="R69" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S69" s="9" t="s">
+      <c r="R69" t="s">
+        <v>59</v>
+      </c>
+      <c r="S69" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="10">
+      <c r="A70" s="9">
         <v>69</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C70" s="10" t="s">
+      <c r="B70" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C70" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D70" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="E70" s="10" t="s">
+      <c r="E70" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="F70" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I70" s="11" t="s">
+      <c r="F70" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I70" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="J70" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O70" s="9"/>
-      <c r="P70" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q70" s="9" t="s">
+      <c r="J70" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O70"/>
+      <c r="P70" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q70" t="s">
         <v>60</v>
       </c>
-      <c r="R70" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S70" s="9" t="s">
+      <c r="R70" t="s">
+        <v>59</v>
+      </c>
+      <c r="S70" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="10">
+      <c r="A71" s="9">
         <v>70</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C71" s="10" t="s">
+      <c r="B71" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C71" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="E71" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="F71" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I71" s="11" t="s">
+      <c r="F71" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I71" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="J71" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q71" s="9" t="s">
+      <c r="J71" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O71"/>
+      <c r="P71" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q71" t="s">
         <v>60</v>
       </c>
-      <c r="R71" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S71" s="9" t="s">
+      <c r="R71" t="s">
+        <v>59</v>
+      </c>
+      <c r="S71" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="10">
+      <c r="A72" s="9">
         <v>71</v>
       </c>
-      <c r="B72" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C72" s="10" t="s">
+      <c r="B72" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C72" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="E72" s="10" t="s">
+      <c r="E72" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="F72" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I72" s="11" t="s">
+      <c r="F72" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I72" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="J72" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O72" s="9"/>
-      <c r="P72" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q72" s="9" t="s">
+      <c r="J72" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O72"/>
+      <c r="P72" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q72" t="s">
         <v>60</v>
       </c>
-      <c r="R72" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S72" s="9" t="s">
+      <c r="R72" t="s">
+        <v>59</v>
+      </c>
+      <c r="S72" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="10">
+      <c r="A73" s="9">
         <v>72</v>
       </c>
-      <c r="B73" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C73" s="10" t="s">
+      <c r="B73" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C73" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="D73" s="10" t="s">
+      <c r="D73" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="E73" s="10" t="s">
+      <c r="E73" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="F73" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I73" s="11" t="s">
+      <c r="F73" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I73" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="J73" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O73" s="9"/>
-      <c r="P73" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q73" s="9" t="s">
+      <c r="J73" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O73"/>
+      <c r="P73" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q73" t="s">
         <v>60</v>
       </c>
-      <c r="R73" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S73" s="9" t="s">
+      <c r="R73" t="s">
+        <v>59</v>
+      </c>
+      <c r="S73" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="10">
+      <c r="A74" s="9">
         <v>73</v>
       </c>
-      <c r="B74" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C74" s="10" t="s">
+      <c r="B74" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="D74" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="E74" s="10" t="s">
+      <c r="E74" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="F74" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I74" s="11" t="s">
+      <c r="F74" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I74" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="J74" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O74" s="9"/>
-      <c r="P74" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q74" s="9" t="s">
+      <c r="J74" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O74"/>
+      <c r="P74" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q74" t="s">
         <v>60</v>
       </c>
-      <c r="R74" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S74" s="9" t="s">
+      <c r="R74" t="s">
+        <v>59</v>
+      </c>
+      <c r="S74" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="10">
+      <c r="A75" s="9">
         <v>74</v>
       </c>
-      <c r="B75" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C75" s="10" t="s">
+      <c r="B75" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C75" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D75" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="E75" s="10" t="s">
+      <c r="E75" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="F75" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I75" s="11" t="s">
+      <c r="F75" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I75" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="J75" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O75" s="9"/>
-      <c r="P75" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q75" s="9" t="s">
+      <c r="J75" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O75"/>
+      <c r="P75" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q75" t="s">
         <v>60</v>
       </c>
-      <c r="R75" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S75" s="9" t="s">
+      <c r="R75" t="s">
+        <v>59</v>
+      </c>
+      <c r="S75" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="10">
+      <c r="A76" s="9">
         <v>75</v>
       </c>
-      <c r="B76" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C76" s="10" t="s">
+      <c r="B76" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C76" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="D76" s="10" t="s">
+      <c r="D76" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="E76" s="10" t="s">
+      <c r="E76" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="F76" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G76" s="10" t="s">
+      <c r="F76" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G76" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="J76" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O76" s="9"/>
-      <c r="P76" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q76" s="9" t="s">
+      <c r="J76" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O76"/>
+      <c r="P76" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q76" t="s">
         <v>60</v>
       </c>
-      <c r="R76" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S76" s="9" t="s">
+      <c r="R76" t="s">
+        <v>59</v>
+      </c>
+      <c r="S76" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="10">
+      <c r="A77" s="9">
         <v>76</v>
       </c>
-      <c r="B77" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C77" s="10" t="s">
+      <c r="B77" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="D77" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E77" s="10" t="s">
+      <c r="E77" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="F77" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I77" s="11" t="s">
+      <c r="F77" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I77" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="J77" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O77" s="9"/>
-      <c r="P77" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q77" s="9" t="s">
+      <c r="J77" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O77"/>
+      <c r="P77" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q77" t="s">
         <v>60</v>
       </c>
-      <c r="R77" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S77" s="9" t="s">
+      <c r="R77" t="s">
+        <v>59</v>
+      </c>
+      <c r="S77" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="10">
+      <c r="A78" s="9">
         <v>77</v>
       </c>
-      <c r="B78" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C78" s="10" t="s">
+      <c r="B78" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C78" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="D78" s="10" t="s">
+      <c r="D78" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="E78" s="10" t="s">
+      <c r="E78" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="F78" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I78" s="11" t="s">
+      <c r="F78" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I78" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="J78" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O78" s="9"/>
-      <c r="P78" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q78" s="9" t="s">
+      <c r="J78" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O78"/>
+      <c r="P78" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q78" t="s">
         <v>60</v>
       </c>
-      <c r="R78" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S78" s="9" t="s">
+      <c r="R78" t="s">
+        <v>59</v>
+      </c>
+      <c r="S78" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="10">
+      <c r="A79" s="9">
         <v>78</v>
       </c>
-      <c r="B79" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C79" s="10" t="s">
+      <c r="B79" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C79" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D79" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="E79" s="10" t="s">
+      <c r="E79" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="F79" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I79" s="11" t="s">
+      <c r="F79" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I79" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="J79" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O79" s="9"/>
-      <c r="P79" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q79" s="9" t="s">
+      <c r="J79" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O79"/>
+      <c r="P79" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q79" t="s">
         <v>60</v>
       </c>
-      <c r="R79" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S79" s="9" t="s">
+      <c r="R79" t="s">
+        <v>59</v>
+      </c>
+      <c r="S79" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="10">
+      <c r="A80" s="9">
         <v>79</v>
       </c>
-      <c r="B80" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C80" s="10" t="s">
+      <c r="B80" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C80" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D80" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="E80" s="10" t="s">
+      <c r="E80" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="F80" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I80" s="11" t="s">
+      <c r="F80" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I80" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="J80" s="10" t="s">
+      <c r="J80" s="9" t="s">
         <v>341</v>
       </c>
       <c r="L80" s="1" t="s">
@@ -5307,84 +5305,84 @@
       <c r="M80" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="O80" s="9" t="s">
+      <c r="O80" t="s">
         <v>358</v>
       </c>
-      <c r="P80" s="9" t="s">
+      <c r="P80" t="s">
         <v>24</v>
       </c>
-      <c r="Q80" s="9" t="s">
+      <c r="Q80" t="s">
         <v>48</v>
       </c>
-      <c r="R80" s="9" t="s">
+      <c r="R80" t="s">
         <v>38</v>
       </c>
-      <c r="S80" s="9" t="s">
+      <c r="S80" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="10">
+      <c r="A81" s="9">
         <v>80</v>
       </c>
-      <c r="B81" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C81" s="10" t="s">
+      <c r="B81" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C81" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="D81" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="E81" s="10" t="s">
+      <c r="E81" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="F81" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I81" s="11" t="s">
+      <c r="F81" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I81" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="J81" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O81" s="9"/>
-      <c r="P81" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q81" s="9" t="s">
+      <c r="J81" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O81"/>
+      <c r="P81" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q81" t="s">
         <v>60</v>
       </c>
-      <c r="R81" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S81" s="9" t="s">
+      <c r="R81" t="s">
+        <v>59</v>
+      </c>
+      <c r="S81" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="10">
+      <c r="A82" s="9">
         <v>81</v>
       </c>
-      <c r="B82" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C82" s="10" t="s">
+      <c r="B82" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C82" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="D82" s="10" t="s">
+      <c r="D82" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="E82" s="10" t="s">
+      <c r="E82" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="F82" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I82" s="11" t="s">
+      <c r="F82" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I82" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="J82" s="10" t="s">
+      <c r="J82" s="9" t="s">
         <v>345</v>
       </c>
       <c r="K82" s="1" t="s">
@@ -5393,31 +5391,31 @@
       <c r="L82" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="M82" s="11" t="s">
+      <c r="M82" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="N82" s="10" t="s">
+      <c r="N82" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O82" s="9"/>
-      <c r="P82" s="9" t="s">
+      <c r="O82"/>
+      <c r="P82" t="s">
         <v>24</v>
       </c>
-      <c r="Q82" s="9" t="s">
+      <c r="Q82" t="s">
         <v>48</v>
       </c>
-      <c r="R82" s="9" t="s">
+      <c r="R82" t="s">
         <v>38</v>
       </c>
-      <c r="S82" s="9" t="s">
+      <c r="S82" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="10">
+      <c r="A83" s="9">
         <v>82</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="9" t="s">
         <v>287</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -5426,65 +5424,65 @@
       <c r="D83" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="E83" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="F83" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J83" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O83" s="9"/>
-      <c r="P83" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q83" s="9" t="s">
+      <c r="F83" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O83"/>
+      <c r="P83" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q83" t="s">
         <v>60</v>
       </c>
-      <c r="R83" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S83" s="9" t="s">
+      <c r="R83" t="s">
+        <v>59</v>
+      </c>
+      <c r="S83" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="10">
+      <c r="A84" s="9">
         <v>83</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="9" t="s">
         <v>287</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D84" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="E84" s="10" t="s">
+      <c r="E84" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="F84" s="10" t="s">
+      <c r="F84" s="9" t="s">
         <v>36</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="J84" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O84" s="9"/>
-      <c r="P84" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q84" s="9" t="s">
+      <c r="J84" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O84"/>
+      <c r="P84" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q84" t="s">
         <v>60</v>
       </c>
-      <c r="R84" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="S84" s="9" t="s">
+      <c r="R84" t="s">
+        <v>59</v>
+      </c>
+      <c r="S84" t="s">
         <v>59</v>
       </c>
     </row>

--- a/data_processing_elements-DSE.xlsx
+++ b/data_processing_elements-DSE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8989DCEF-0B06-4238-B8EE-B9090599C27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A322B955-7833-46E2-8611-E5AB17C3A16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -1911,7 +1911,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T3" sqref="T3"/>
+      <selection pane="bottomRight" activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
